--- a/Nienhuis_BarrierBreach_tables.xlsx
+++ b/Nienhuis_BarrierBreach_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\2021 BarrierBreach JGR\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\2021 BarrierBreach JGR\barrier_breach_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3DAA64-0E35-4EF6-8026-A4F7F354B6DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AF4B62-E31B-4FF0-A36C-6BD543CF856A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Delft3D model settings" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
   <si>
     <t>nr</t>
   </si>
@@ -244,12 +244,6 @@
     <t>ocean water level boundary, see Fig. 2d</t>
   </si>
   <si>
-    <t>Developed/vegetated</t>
-  </si>
-  <si>
-    <t>1=true, 0.5=veg</t>
-  </si>
-  <si>
     <t>water level head across barrier island</t>
   </si>
   <si>
@@ -315,13 +309,19 @@
   <si>
     <t>max surge duration, note that this is slightly different from Tstorm (see text)</t>
   </si>
+  <si>
+    <t>Friction factor (Cf)</t>
+  </si>
+  <si>
+    <t>0…200</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -371,7 +371,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -816,8 +816,8 @@
       <c r="A12" t="s">
         <v>52</v>
       </c>
-      <c r="B12">
-        <v>50</v>
+      <c r="B12" t="s">
+        <v>92</v>
       </c>
       <c r="C12" t="s">
         <v>55</v>
@@ -965,15 +965,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D21984D-2142-4BC8-B075-19B1665AC5A7}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.73046875" customWidth="1"/>
+    <col min="7" max="7" width="18.73046875" customWidth="1"/>
     <col min="8" max="8" width="14.265625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="12.73046875" bestFit="1" customWidth="1"/>
@@ -1000,10 +1000,10 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
         <v>69</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -1015,19 +1015,19 @@
         <v>12</v>
       </c>
       <c r="L1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M1" t="s">
+        <v>77</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
         <v>78</v>
-      </c>
-      <c r="M1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O1" t="s">
-        <v>73</v>
-      </c>
-      <c r="P1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.45">
@@ -1046,8 +1046,8 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>70</v>
+      <c r="G2" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -1062,19 +1062,19 @@
         <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.45">
@@ -1096,8 +1096,9 @@
       <c r="F3">
         <v>0.43790000000000001</v>
       </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="G3" s="6">
+        <f>10/(8^2)</f>
+        <v>0.15625</v>
       </c>
       <c r="H3" s="4">
         <v>2.4885000000000002</v>
@@ -1115,18 +1116,18 @@
         <v>100000</v>
       </c>
       <c r="M3" s="6">
-        <v>114784.073975069</v>
+        <v>16324.8460764542</v>
       </c>
       <c r="N3" s="6">
-        <v>19074</v>
+        <v>9537</v>
       </c>
       <c r="O3" s="6">
         <f>L3/N3</f>
-        <v>5.2427388067526479</v>
+        <v>10.485477613505296</v>
       </c>
       <c r="P3" s="6">
         <f>M3/N3</f>
-        <v>6.0178291902626082</v>
+        <v>1.7117380807858027</v>
       </c>
       <c r="R3" s="4"/>
     </row>
@@ -1149,8 +1150,9 @@
       <c r="F4">
         <v>0.31298999999999999</v>
       </c>
-      <c r="G4">
-        <v>1</v>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G8" si="0">10/(8^2)</f>
+        <v>0.15625</v>
       </c>
       <c r="H4" s="4">
         <v>2.4885000000000002</v>
@@ -1168,18 +1170,18 @@
         <v>100000</v>
       </c>
       <c r="M4" s="6">
-        <v>76800.153426701596</v>
+        <v>10922.6884873531</v>
       </c>
       <c r="N4" s="6">
-        <v>28157.272000000001</v>
+        <v>14078.636</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" ref="O4:O29" si="0">L4/N4</f>
-        <v>3.5514804133014022</v>
+        <f t="shared" ref="O4:O29" si="1">L4/N4</f>
+        <v>7.1029608266028044</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" ref="P4:P29" si="1">M4/N4</f>
-        <v>2.7275424063347327</v>
+        <f t="shared" ref="P4:P29" si="2">M4/N4</f>
+        <v>0.77583428446854508</v>
       </c>
       <c r="R4" s="4"/>
     </row>
@@ -1202,8 +1204,9 @@
       <c r="F5">
         <v>2.3986000000000001</v>
       </c>
-      <c r="G5">
-        <v>1</v>
+      <c r="G5" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
       </c>
       <c r="H5" s="4">
         <v>1.1072000000000002</v>
@@ -1221,18 +1224,18 @@
         <v>159.6</v>
       </c>
       <c r="M5" s="6">
-        <v>2256.58087299811</v>
+        <v>320.93594638195299</v>
       </c>
       <c r="N5" s="6">
-        <v>8400</v>
+        <v>4200</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="0"/>
-        <v>1.9E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="1"/>
-        <v>0.26864058011882264</v>
+        <f t="shared" si="2"/>
+        <v>7.6413320567131668E-2</v>
       </c>
       <c r="R5" s="4"/>
     </row>
@@ -1255,8 +1258,9 @@
       <c r="F6">
         <v>2.3986000000000001</v>
       </c>
-      <c r="G6">
-        <v>1</v>
+      <c r="G6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
       </c>
       <c r="H6" s="4">
         <v>1.1072000000000002</v>
@@ -1274,18 +1278,18 @@
         <v>70.5</v>
       </c>
       <c r="M6" s="6">
-        <v>2236.55808345891</v>
+        <v>318.088260758601</v>
       </c>
       <c r="N6" s="6">
-        <v>8430</v>
+        <v>4215</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3629893238434169E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.6725978647686834E-2</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="1"/>
-        <v>0.26530938119322778</v>
+        <f t="shared" si="2"/>
+        <v>7.5465779539407113E-2</v>
       </c>
       <c r="R6" s="4"/>
     </row>
@@ -1308,8 +1312,9 @@
       <c r="F7">
         <v>0.70603000000000005</v>
       </c>
-      <c r="G7">
-        <v>0</v>
+      <c r="G7" s="6">
+        <f>10/(45^2)</f>
+        <v>4.9382716049382715E-3</v>
       </c>
       <c r="H7" s="4">
         <v>2.4885000000000002</v>
@@ -1327,18 +1332,18 @@
         <v>100000</v>
       </c>
       <c r="M7" s="6">
-        <v>147536.16450267599</v>
+        <v>35356.299777268498</v>
       </c>
       <c r="N7" s="6">
-        <v>55465.767999999996</v>
+        <v>27732.883999999998</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="0"/>
-        <v>1.8029138260557396</v>
+        <f t="shared" si="1"/>
+        <v>3.6058276521114792</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6599499082510856</v>
+        <f t="shared" si="2"/>
+        <v>1.2748872341321769</v>
       </c>
       <c r="R7" s="4"/>
     </row>
@@ -1361,8 +1366,9 @@
       <c r="F8">
         <v>0.58477000000000001</v>
       </c>
-      <c r="G8">
-        <v>1</v>
+      <c r="G8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.15625</v>
       </c>
       <c r="H8" s="4">
         <v>2.4885000000000002</v>
@@ -1380,18 +1386,18 @@
         <v>100000</v>
       </c>
       <c r="M8" s="6">
-        <v>9988.5139147081209</v>
+        <v>1420.58864564738</v>
       </c>
       <c r="N8" s="6">
-        <v>37497.203999999998</v>
+        <v>18748.601999999999</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="0"/>
-        <v>2.666865508158955</v>
+        <f t="shared" si="1"/>
+        <v>5.3337310163179099</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="1"/>
-        <v>0.26638023236900865</v>
+        <f t="shared" si="2"/>
+        <v>7.5770377207184839E-2</v>
       </c>
       <c r="R8" s="4"/>
     </row>
@@ -1414,8 +1420,8 @@
       <c r="F9">
         <v>1.1653</v>
       </c>
-      <c r="G9">
-        <v>0.5</v>
+      <c r="G9" s="6">
+        <v>0.01</v>
       </c>
       <c r="H9" s="4">
         <v>2.2593999999999999</v>
@@ -1433,18 +1439,18 @@
         <v>69.599999999999994</v>
       </c>
       <c r="M9" s="6">
-        <v>4839.6729847269698</v>
+        <v>1512.39780772718</v>
       </c>
       <c r="N9" s="6">
-        <v>88854.15</v>
+        <v>44427.074999999997</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="0"/>
-        <v>7.8330612582529907E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.5666122516505981E-3</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="1"/>
-        <v>5.4467607700112712E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4042254812570491E-2</v>
       </c>
       <c r="R9" s="4"/>
     </row>
@@ -1467,8 +1473,9 @@
       <c r="F10">
         <v>0.27603</v>
       </c>
-      <c r="G10">
-        <v>0</v>
+      <c r="G10" s="6">
+        <f>10/(45^2)</f>
+        <v>4.9382716049382715E-3</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -1487,18 +1494,18 @@
         <v>216</v>
       </c>
       <c r="M10" s="6">
-        <v>3319.8357076203401</v>
+        <v>795.58192993268597</v>
       </c>
       <c r="N10" s="6">
-        <v>45182.928</v>
+        <v>22591.464</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="0"/>
-        <v>4.7805666777504989E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.5611333555009979E-3</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="1"/>
-        <v>7.3475444256740963E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.5216041330153991E-2</v>
       </c>
       <c r="R10" s="4"/>
     </row>
@@ -1521,8 +1528,9 @@
       <c r="F11">
         <v>0.46489000000000003</v>
       </c>
-      <c r="G11">
-        <v>0</v>
+      <c r="G11" s="6">
+        <f>10/(45^2)</f>
+        <v>4.9382716049382715E-3</v>
       </c>
       <c r="H11" s="4">
         <v>1</v>
@@ -1540,18 +1548,18 @@
         <v>396.6</v>
       </c>
       <c r="M11" s="6">
-        <v>2020.08882073051</v>
+        <v>484.10412567802098</v>
       </c>
       <c r="N11" s="6">
-        <v>22963.186000000002</v>
+        <v>11481.593000000001</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7271122569838523E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.4542245139677047E-2</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="1"/>
-        <v>8.7970755483603613E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.2163498190366175E-2</v>
       </c>
       <c r="R11" s="4"/>
     </row>
@@ -1574,8 +1582,9 @@
       <c r="F12">
         <v>0.28858</v>
       </c>
-      <c r="G12">
-        <v>0</v>
+      <c r="G12" s="6">
+        <f>10/(45^2)</f>
+        <v>4.9382716049382715E-3</v>
       </c>
       <c r="H12" s="4">
         <v>0.9856999999999998</v>
@@ -1593,18 +1602,18 @@
         <v>100000</v>
       </c>
       <c r="M12" s="6">
-        <v>1659.9447565476</v>
+        <v>397.79741207205802</v>
       </c>
       <c r="N12" s="6">
-        <v>19794.72</v>
+        <v>9897.36</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="0"/>
-        <v>5.0518522110946753</v>
+        <f t="shared" si="1"/>
+        <v>10.103704422189351</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="1"/>
-        <v>8.3857955886600055E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.0192274714879322E-2</v>
       </c>
       <c r="R12" s="4"/>
     </row>
@@ -1627,8 +1636,9 @@
       <c r="F13">
         <v>0.44778000000000001</v>
       </c>
-      <c r="G13">
-        <v>1</v>
+      <c r="G13" s="6">
+        <f t="shared" ref="G13" si="3">10/(8^2)</f>
+        <v>0.15625</v>
       </c>
       <c r="H13" s="4">
         <v>0.9856999999999998</v>
@@ -1646,18 +1656,18 @@
         <v>280.5</v>
       </c>
       <c r="M13" s="6">
-        <v>1441.33459619737</v>
+        <v>204.98980923695899</v>
       </c>
       <c r="N13" s="6">
-        <v>25537.175999999999</v>
+        <v>12768.588</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0983986639713022E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1967973279426043E-2</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="1"/>
-        <v>5.6440641525804185E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.605422692289539E-2</v>
       </c>
       <c r="R13" s="4"/>
     </row>
@@ -1680,8 +1690,8 @@
       <c r="F14">
         <v>1.5409999999999999</v>
       </c>
-      <c r="G14">
-        <v>0.5</v>
+      <c r="G14" s="6">
+        <v>0.01</v>
       </c>
       <c r="H14" s="4">
         <v>0.80339999999999989</v>
@@ -1699,18 +1709,18 @@
         <v>486.6</v>
       </c>
       <c r="M14" s="6">
-        <v>1430.62637032215</v>
+        <v>447.07074072567099</v>
       </c>
       <c r="N14" s="6">
-        <v>14069.73</v>
+        <v>7034.8649999999998</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="0"/>
-        <v>3.4584885424240555E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.916977084848111E-2</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="1"/>
-        <v>0.10168115310827927</v>
+        <f t="shared" si="2"/>
+        <v>6.3550720692674409E-2</v>
       </c>
       <c r="R14" s="4"/>
     </row>
@@ -1733,8 +1743,9 @@
       <c r="F15">
         <v>0.61894000000000005</v>
       </c>
-      <c r="G15">
-        <v>1</v>
+      <c r="G15" s="6">
+        <f t="shared" ref="G15:G25" si="4">10/(8^2)</f>
+        <v>0.15625</v>
       </c>
       <c r="H15" s="4">
         <v>2.6360000000000001</v>
@@ -1752,18 +1763,18 @@
         <v>772.8</v>
       </c>
       <c r="M15" s="6">
-        <v>12412.7821900831</v>
+        <v>1765.37346703403</v>
       </c>
       <c r="N15" s="6">
-        <v>34670.256000000001</v>
+        <v>17335.128000000001</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="0"/>
-        <v>2.2289999820018634E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.4579999640037268E-2</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="1"/>
-        <v>0.35802395546439286</v>
+        <f t="shared" si="2"/>
+        <v>0.10183792510987112</v>
       </c>
       <c r="R15" s="4"/>
     </row>
@@ -1786,8 +1797,9 @@
       <c r="F16">
         <v>2.9007999999999998</v>
       </c>
-      <c r="G16">
-        <v>1</v>
+      <c r="G16" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H16" s="4">
         <v>2.6360000000000001</v>
@@ -1805,18 +1817,18 @@
         <v>76.8</v>
       </c>
       <c r="M16" s="6">
-        <v>23089.3588857576</v>
+        <v>3283.8199304188602</v>
       </c>
       <c r="N16" s="6">
-        <v>22830</v>
+        <v>11415</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="0"/>
-        <v>3.3639947437582129E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.7279894875164259E-3</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="1"/>
-        <v>1.0113604417765045</v>
+        <f t="shared" si="2"/>
+        <v>0.28767585899420589</v>
       </c>
       <c r="R16" s="4"/>
     </row>
@@ -1839,8 +1851,9 @@
       <c r="F17">
         <v>2.9007999999999998</v>
       </c>
-      <c r="G17">
-        <v>1</v>
+      <c r="G17" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H17" s="4">
         <v>2.6360000000000001</v>
@@ -1858,18 +1871,18 @@
         <v>241.5</v>
       </c>
       <c r="M17" s="6">
-        <v>36880.781742970001</v>
+        <v>5245.2667367779604</v>
       </c>
       <c r="N17" s="6">
-        <v>18930</v>
+        <v>9465</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2757527733755943E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.5515055467511885E-2</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="1"/>
-        <v>1.9482716187517168</v>
+        <f t="shared" si="2"/>
+        <v>0.55417503822271108</v>
       </c>
       <c r="R17" s="4"/>
     </row>
@@ -1892,8 +1905,9 @@
       <c r="F18">
         <v>2.9007999999999998</v>
       </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="G18" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H18" s="4">
         <v>2.6360000000000001</v>
@@ -1911,18 +1925,18 @@
         <v>387.9</v>
       </c>
       <c r="M18" s="6">
-        <v>34911.959855128996</v>
+        <v>4965.2565127294602</v>
       </c>
       <c r="N18" s="6">
-        <v>19350</v>
+        <v>9675</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="0"/>
-        <v>2.0046511627906976E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.0093023255813952E-2</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="1"/>
-        <v>1.804235651427855</v>
+        <f t="shared" si="2"/>
+        <v>0.51320480751725683</v>
       </c>
       <c r="R18" s="4"/>
     </row>
@@ -1945,8 +1959,9 @@
       <c r="F19">
         <v>2.9007999999999998</v>
       </c>
-      <c r="G19">
-        <v>1</v>
+      <c r="G19" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H19" s="4">
         <v>2.6360000000000001</v>
@@ -1964,18 +1979,18 @@
         <v>24</v>
       </c>
       <c r="M19" s="6">
-        <v>32103.984076365199</v>
+        <v>4565.8999575275002</v>
       </c>
       <c r="N19" s="6">
-        <v>20010</v>
+        <v>10005</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1994002998500749E-3</v>
+        <f t="shared" si="1"/>
+        <v>2.3988005997001498E-3</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6043970053156023</v>
+        <f t="shared" si="2"/>
+        <v>0.45636181484532734</v>
       </c>
       <c r="R19" s="4"/>
     </row>
@@ -1998,8 +2013,9 @@
       <c r="F20">
         <v>1.61</v>
       </c>
-      <c r="G20">
-        <v>1</v>
+      <c r="G20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H20" s="4">
         <v>2.6360000000000001</v>
@@ -2017,18 +2033,18 @@
         <v>23.7</v>
       </c>
       <c r="M20" s="6">
-        <v>227051.26074164701</v>
+        <v>32291.734861034201</v>
       </c>
       <c r="N20" s="6">
-        <v>9150</v>
+        <v>4575</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="0"/>
-        <v>2.5901639344262295E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.1803278688524589E-3</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="1"/>
-        <v>24.814345436245574</v>
+        <f t="shared" si="2"/>
+        <v>7.058302701865399</v>
       </c>
       <c r="R20" s="4"/>
     </row>
@@ -2051,8 +2067,9 @@
       <c r="F21">
         <v>1.61</v>
       </c>
-      <c r="G21">
-        <v>1</v>
+      <c r="G21" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H21" s="4">
         <v>2.6360000000000001</v>
@@ -2070,18 +2087,18 @@
         <v>61.5</v>
       </c>
       <c r="M21" s="6">
-        <v>338407.629815211</v>
+        <v>48129.085129274499</v>
       </c>
       <c r="N21" s="6">
-        <v>7800</v>
+        <v>3900</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="0"/>
-        <v>7.884615384615384E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.5769230769230768E-2</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="1"/>
-        <v>43.385593566052691</v>
+        <f t="shared" si="2"/>
+        <v>12.340791058788334</v>
       </c>
       <c r="R21" s="4"/>
     </row>
@@ -2104,8 +2121,9 @@
       <c r="F22">
         <v>0.43790000000000001</v>
       </c>
-      <c r="G22">
-        <v>1</v>
+      <c r="G22" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H22" s="4">
         <v>2.4885000000000002</v>
@@ -2123,18 +2141,18 @@
         <v>240</v>
       </c>
       <c r="M22" s="6">
-        <v>196402.20384623299</v>
+        <v>27932.7578803531</v>
       </c>
       <c r="N22" s="6">
-        <v>15386.36</v>
+        <v>7693.18</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5598231160586389E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1196462321172777E-2</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="1"/>
-        <v>12.764695733508963</v>
+        <f t="shared" si="2"/>
+        <v>3.6308467864203227</v>
       </c>
       <c r="R22" s="4"/>
     </row>
@@ -2157,8 +2175,9 @@
       <c r="F23">
         <v>0.31298999999999999</v>
       </c>
-      <c r="G23">
-        <v>1</v>
+      <c r="G23" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H23" s="4">
         <v>1.1072000000000002</v>
@@ -2177,18 +2196,18 @@
         <v>234.9</v>
       </c>
       <c r="M23" s="6">
-        <v>279.36251413974202</v>
+        <v>39.731557566541099</v>
       </c>
       <c r="N23" s="6">
-        <v>23628.48</v>
+        <v>11814.24</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="0"/>
-        <v>9.9413927599236174E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.9882785519847235E-2</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="1"/>
-        <v>1.1823126758036998E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.3630227222860801E-3</v>
       </c>
       <c r="R23" s="4"/>
     </row>
@@ -2211,8 +2230,9 @@
       <c r="F24">
         <v>0.31298999999999999</v>
       </c>
-      <c r="G24">
-        <v>1</v>
+      <c r="G24" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H24" s="4">
         <v>1.1072000000000002</v>
@@ -2231,18 +2251,18 @@
         <v>123</v>
       </c>
       <c r="M24" s="6">
-        <v>214.002122801582</v>
+        <v>30.435857465113799</v>
       </c>
       <c r="N24" s="6">
-        <v>26286.684000000001</v>
+        <v>13143.342000000001</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="0"/>
-        <v>4.6791752052103642E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.3583504104207283E-3</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="1"/>
-        <v>8.1410847713459019E-3</v>
+        <f t="shared" si="2"/>
+        <v>2.3156863349606057E-3</v>
       </c>
       <c r="R24" s="4"/>
     </row>
@@ -2265,8 +2285,9 @@
       <c r="F25">
         <v>0.86921999999999999</v>
       </c>
-      <c r="G25">
-        <v>1</v>
+      <c r="G25" s="6">
+        <f t="shared" si="4"/>
+        <v>0.15625</v>
       </c>
       <c r="H25" s="4">
         <v>2.4885000000000002</v>
@@ -2284,18 +2305,18 @@
         <v>93.3</v>
       </c>
       <c r="M25" s="6">
-        <v>3215.4003886181399</v>
+        <v>457.30138860346801</v>
       </c>
       <c r="N25" s="6">
-        <v>100800.868</v>
+        <v>50400.434000000001</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="0"/>
-        <v>9.2558726776043238E-4</v>
+        <f t="shared" si="1"/>
+        <v>1.8511745355208648E-3</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="1"/>
-        <v>3.1898538697287211E-2</v>
+        <f t="shared" si="2"/>
+        <v>9.0733621183394578E-3</v>
       </c>
       <c r="R25" s="4"/>
     </row>
@@ -2318,8 +2339,8 @@
       <c r="F26">
         <v>1.0370999999999999</v>
       </c>
-      <c r="G26">
-        <v>0.5</v>
+      <c r="G26" s="6">
+        <v>0.01</v>
       </c>
       <c r="H26" s="4">
         <v>1.9643999999999999</v>
@@ -2337,18 +2358,18 @@
         <v>378.3</v>
       </c>
       <c r="M26" s="6">
-        <v>10427.6262444695</v>
+        <v>3258.6332013967199</v>
       </c>
       <c r="N26" s="6">
-        <v>117810.54</v>
+        <v>58905.27</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="0"/>
-        <v>3.2110879043589823E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.4221758087179646E-3</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="1"/>
-        <v>8.8511827927021641E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.531989245438855E-2</v>
       </c>
       <c r="R26" s="4"/>
     </row>
@@ -2371,8 +2392,8 @@
       <c r="F27">
         <v>0.72319</v>
       </c>
-      <c r="G27">
-        <v>0.5</v>
+      <c r="G27" s="6">
+        <v>0.01</v>
       </c>
       <c r="H27" s="4">
         <v>1.6208</v>
@@ -2390,18 +2411,18 @@
         <v>578.1</v>
       </c>
       <c r="M27" s="6">
-        <v>22035.637181271599</v>
+        <v>6886.1366191473699</v>
       </c>
       <c r="N27" s="6">
-        <v>30752.07</v>
+        <v>15376.035</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="0"/>
-        <v>1.8798734524212518E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.7597469048425036E-2</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="1"/>
-        <v>0.71655785061856325</v>
+        <f t="shared" si="2"/>
+        <v>0.44784865663660167</v>
       </c>
       <c r="R27" s="4"/>
     </row>
@@ -2424,8 +2445,8 @@
       <c r="F28">
         <v>0.72319</v>
       </c>
-      <c r="G28">
-        <v>0.5</v>
+      <c r="G28" s="6">
+        <v>0.01</v>
       </c>
       <c r="H28" s="4">
         <v>1.6208</v>
@@ -2443,18 +2464,18 @@
         <v>100000</v>
       </c>
       <c r="M28" s="6">
-        <v>40688.8678028586</v>
+        <v>12715.271188393301</v>
       </c>
       <c r="N28" s="6">
-        <v>24062.146000000001</v>
+        <v>12031.073</v>
       </c>
       <c r="O28" s="6">
-        <f t="shared" si="0"/>
-        <v>4.1559052962275267</v>
+        <f t="shared" si="1"/>
+        <v>8.3118105924550534</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6909908119940174</v>
+        <f t="shared" si="2"/>
+        <v>1.0568692574962599</v>
       </c>
       <c r="R28" s="4"/>
     </row>
@@ -2477,8 +2498,8 @@
       <c r="F29">
         <v>0.48305999999999999</v>
       </c>
-      <c r="G29">
-        <v>0.5</v>
+      <c r="G29" s="6">
+        <v>0.01</v>
       </c>
       <c r="H29" s="4">
         <v>1.6208</v>
@@ -2496,18 +2517,18 @@
         <v>479.4</v>
       </c>
       <c r="M29" s="6">
-        <v>8230.8338353703493</v>
+        <v>2572.1355735532302</v>
       </c>
       <c r="N29" s="6">
-        <v>101976.732</v>
+        <v>50988.366000000002</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" si="0"/>
-        <v>4.7010723975739873E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.4021447951479747E-3</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="1"/>
-        <v>8.0712861394404645E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.0445538371502827E-2</v>
       </c>
       <c r="R29" s="4"/>
     </row>
@@ -2519,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBF809B-6B4A-4D65-A074-11A2F4CA0C37}">
-  <dimension ref="A1:O141"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2533,54 +2554,54 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" t="s">
         <v>87</v>
       </c>
-      <c r="C1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>88</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" t="s">
         <v>89</v>
       </c>
-      <c r="K1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" t="s">
-        <v>79</v>
-      </c>
-      <c r="M1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N1" t="s">
-        <v>91</v>
-      </c>
       <c r="O1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -2598,7 +2619,7 @@
         <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s">
         <v>6</v>
@@ -2607,19 +2628,19 @@
         <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -2642,7 +2663,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2657,7 +2678,7 @@
         <v>548.37103204878201</v>
       </c>
       <c r="L3">
-        <v>4255.7554237302702</v>
+        <v>1456.4375331808901</v>
       </c>
       <c r="M3">
         <v>2617.6035886211598</v>
@@ -2668,7 +2689,7 @@
       </c>
       <c r="O3">
         <f>L3/M3</f>
-        <v>1.6258212061712591</v>
+        <v>0.55640110653579844</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -2691,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -2706,7 +2727,7 @@
         <v>80.280368236597198</v>
       </c>
       <c r="L4">
-        <v>2073.1456739496498</v>
+        <v>709.48794530238104</v>
       </c>
       <c r="M4">
         <v>3646.1326343780302</v>
@@ -2717,7 +2738,7 @@
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O67" si="1">L4/M4</f>
-        <v>0.56858756436963631</v>
+        <v>0.19458643347553589</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -2740,7 +2761,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2755,7 +2776,7 @@
         <v>11.8818153095197</v>
       </c>
       <c r="L5">
-        <v>752.31837979777504</v>
+        <v>257.46421402170301</v>
       </c>
       <c r="M5">
         <v>4490.1704246113604</v>
@@ -2766,7 +2787,7 @@
       </c>
       <c r="O5">
         <f t="shared" si="1"/>
-        <v>0.16754784532769507</v>
+        <v>5.7339519366681371E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -2789,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -2804,7 +2825,7 @@
         <v>1.0899552027695401</v>
       </c>
       <c r="L6">
-        <v>132.992356991571</v>
+        <v>45.513672911902702</v>
       </c>
       <c r="M6">
         <v>5146.4336280482303</v>
@@ -2815,7 +2836,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>2.5841653969218285E-2</v>
+        <v>8.8437306689144318E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -2838,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -2853,7 +2874,7 @@
         <v>3060.3202388958398</v>
       </c>
       <c r="L7">
-        <v>8511.5108474605295</v>
+        <v>2912.8750663617702</v>
       </c>
       <c r="M7">
         <v>5234.68370884657</v>
@@ -2864,7 +2885,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="1"/>
-        <v>1.6259837882995969</v>
+        <v>0.55645674664909295</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -2887,7 +2908,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -2902,7 +2923,7 @@
         <v>657.50488337135903</v>
       </c>
       <c r="L8">
-        <v>4146.2913478992996</v>
+        <v>1418.97589060476</v>
       </c>
       <c r="M8">
         <v>7291.5361151099196</v>
@@ -2913,7 +2934,7 @@
       </c>
       <c r="O8">
         <f t="shared" si="1"/>
-        <v>0.56864442312877361</v>
+        <v>0.19460589211980733</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -2936,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -2951,7 +2972,7 @@
         <v>69.314101133812798</v>
       </c>
       <c r="L9">
-        <v>1504.6367595955501</v>
+        <v>514.92842804340603</v>
       </c>
       <c r="M9">
         <v>8979.4429048895799</v>
@@ -2962,7 +2983,7 @@
       </c>
       <c r="O9">
         <f t="shared" si="1"/>
-        <v>0.16756460011302365</v>
+        <v>5.7345253318890399E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -2985,7 +3006,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -3000,7 +3021,7 @@
         <v>3.0851374283806901</v>
       </c>
       <c r="L10">
-        <v>265.984713983142</v>
+        <v>91.027345823805405</v>
       </c>
       <c r="M10">
         <v>10291.8380722404</v>
@@ -3011,7 +3032,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="1"/>
-        <v>2.5844238134737827E-2</v>
+        <v>8.8446150420232877E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -3034,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -3049,7 +3070,7 @@
         <v>8221.8264727957394</v>
       </c>
       <c r="L11">
-        <v>12767.2662711908</v>
+        <v>4369.3125995426599</v>
       </c>
       <c r="M11">
         <v>7852.02556326985</v>
@@ -3060,7 +3081,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>1.6259837882995984</v>
+        <v>0.55645674664909395</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -3083,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -3098,7 +3119,7 @@
         <v>2195.2607461923899</v>
       </c>
       <c r="L12">
-        <v>6219.4370218489403</v>
+        <v>2128.46383590714</v>
       </c>
       <c r="M12">
         <v>10937.304172664901</v>
@@ -3109,7 +3130,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="1"/>
-        <v>0.56864442312877173</v>
+        <v>0.19460589211980694</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
@@ -3132,7 +3153,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -3147,7 +3168,7 @@
         <v>232.178189181173</v>
       </c>
       <c r="L13">
-        <v>2256.9551393933298</v>
+        <v>772.39264206510904</v>
       </c>
       <c r="M13">
         <v>13469.164357334401</v>
@@ -3158,7 +3179,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="1"/>
-        <v>0.16756460011302363</v>
+        <v>5.7345253318890267E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -3181,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -3196,7 +3217,7 @@
         <v>6.9762806493512599</v>
       </c>
       <c r="L14">
-        <v>398.97707097471198</v>
+        <v>136.54101873570801</v>
       </c>
       <c r="M14">
         <v>15437.7571083605</v>
@@ -3207,7 +3228,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="1"/>
-        <v>2.5844238134737931E-2</v>
+        <v>8.8446150420233398E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
@@ -3230,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -3245,7 +3266,7 @@
         <v>16427.5244593672</v>
       </c>
       <c r="L15">
-        <v>17023.021694921099</v>
+        <v>5825.7501327235505</v>
       </c>
       <c r="M15">
         <v>10469.3674176931</v>
@@ -3256,7 +3277,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="1"/>
-        <v>1.6259837882996069</v>
+        <v>0.55645674664909606</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.45">
@@ -3279,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -3294,7 +3315,7 @@
         <v>5044.8750038062099</v>
       </c>
       <c r="L16">
-        <v>8292.5826957985901</v>
+        <v>2837.9517812095301</v>
       </c>
       <c r="M16">
         <v>14583.072230219799</v>
@@ -3305,7 +3326,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="1"/>
-        <v>0.56864442312877461</v>
+        <v>0.19460589211980855</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.45">
@@ -3328,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -3343,7 +3364,7 @@
         <v>521.34826554620895</v>
       </c>
       <c r="L17">
-        <v>3009.2735191911001</v>
+        <v>1029.85685608681</v>
       </c>
       <c r="M17">
         <v>17958.8858097792</v>
@@ -3354,7 +3375,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="1"/>
-        <v>0.16756460011302329</v>
+        <v>5.7345253318890156E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.45">
@@ -3377,7 +3398,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -3392,7 +3413,7 @@
         <v>12.944004946555999</v>
       </c>
       <c r="L18">
-        <v>531.96942796628298</v>
+        <v>182.05469164761101</v>
       </c>
       <c r="M18">
         <v>20583.676144480702</v>
@@ -3403,7 +3424,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="1"/>
-        <v>2.5844238134737903E-2</v>
+        <v>8.8446150420233398E-3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.45">
@@ -3426,7 +3447,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -3441,7 +3462,7 @@
         <v>27661.075209028</v>
       </c>
       <c r="L19">
-        <v>21278.777118651298</v>
+        <v>7282.1876659044301</v>
       </c>
       <c r="M19">
         <v>13086.709272116401</v>
@@ -3452,7 +3473,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>1.6259837882995978</v>
+        <v>0.55645674664909439</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.45">
@@ -3475,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -3490,7 +3511,7 @@
         <v>9013.3455173409602</v>
       </c>
       <c r="L20">
-        <v>10365.7283697482</v>
+        <v>3547.4397265119101</v>
       </c>
       <c r="M20">
         <v>18228.840287774801</v>
@@ -3501,7 +3522,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="1"/>
-        <v>0.56864442312877084</v>
+        <v>0.19460589211980786</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.45">
@@ -3524,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -3539,7 +3560,7 @@
         <v>947.86384369759196</v>
       </c>
       <c r="L21">
-        <v>3761.5918989888801</v>
+        <v>1287.32107010851</v>
       </c>
       <c r="M21">
         <v>22448.607262223999</v>
@@ -3550,7 +3571,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="1"/>
-        <v>0.16756460011302352</v>
+        <v>5.7345253318890045E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.45">
@@ -3573,7 +3594,7 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -3588,7 +3609,7 @@
         <v>20.898754505292299</v>
       </c>
       <c r="L22">
-        <v>664.96178495785398</v>
+        <v>227.56836455951401</v>
       </c>
       <c r="M22">
         <v>25729.5951806009</v>
@@ -3599,7 +3620,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="1"/>
-        <v>2.584423813473789E-2</v>
+        <v>8.8446150420233415E-3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.45">
@@ -3622,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -3637,7 +3658,7 @@
         <v>44885.875583455898</v>
       </c>
       <c r="L23">
-        <v>25534.532542381599</v>
+        <v>8738.6251990853198</v>
       </c>
       <c r="M23">
         <v>15704.0511265397</v>
@@ -3648,7 +3669,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>1.6259837882995984</v>
+        <v>0.55645674664909395</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.45">
@@ -3671,7 +3692,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -3686,7 +3707,7 @@
         <v>14453.4702827285</v>
       </c>
       <c r="L24">
-        <v>12438.874043697901</v>
+        <v>4256.9276718142901</v>
       </c>
       <c r="M24">
         <v>21874.608345329802</v>
@@ -3697,7 +3718,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="1"/>
-        <v>0.56864442312877261</v>
+        <v>0.19460589211980742</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.45">
@@ -3720,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3735,7 +3756,7 @@
         <v>1511.84675380769</v>
       </c>
       <c r="L25">
-        <v>4513.9102787866505</v>
+        <v>1544.7852841302199</v>
       </c>
       <c r="M25">
         <v>26938.328714668802</v>
@@ -3746,7 +3767,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="1"/>
-        <v>0.16756460011302329</v>
+        <v>5.7345253318890337E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
@@ -3769,7 +3790,7 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -3784,7 +3805,7 @@
         <v>30.842935330033399</v>
       </c>
       <c r="L26">
-        <v>797.95414194942498</v>
+        <v>273.08203747141602</v>
       </c>
       <c r="M26">
         <v>30875.514216721102</v>
@@ -3795,7 +3816,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="1"/>
-        <v>2.5844238134737879E-2</v>
+        <v>8.8446150420233103E-3</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
@@ -3818,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3833,7 +3854,7 @@
         <v>82365.435836362798</v>
       </c>
       <c r="L27">
-        <v>29790.2879661119</v>
+        <v>10195.0627322662</v>
       </c>
       <c r="M27">
         <v>18321.392980962999</v>
@@ -3844,7 +3865,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="1"/>
-        <v>1.6259837882995991</v>
+        <v>0.55645674664909306</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
@@ -3867,7 +3888,7 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3882,7 +3903,7 @@
         <v>20187.000085307402</v>
       </c>
       <c r="L28">
-        <v>14512.019717647499</v>
+        <v>4966.4156171166696</v>
       </c>
       <c r="M28">
         <v>25520.3764028847</v>
@@ -3893,7 +3914,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="1"/>
-        <v>0.56864442312877217</v>
+        <v>0.19460589211980783</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.45">
@@ -3916,7 +3937,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3931,7 +3952,7 @@
         <v>2193.27547649704</v>
       </c>
       <c r="L29">
-        <v>5266.2286585844304</v>
+        <v>1802.2494981519201</v>
       </c>
       <c r="M29">
         <v>31428.050167113499</v>
@@ -3942,7 +3963,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="1"/>
-        <v>0.16756460011302399</v>
+        <v>5.734525331889042E-2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.45">
@@ -3965,7 +3986,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3980,7 +4001,7 @@
         <v>43.182901632237403</v>
       </c>
       <c r="L30">
-        <v>930.94649894099598</v>
+        <v>318.59571038331899</v>
       </c>
       <c r="M30">
         <v>36021.433252841198</v>
@@ -3991,7 +4012,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="1"/>
-        <v>2.5844238134737945E-2</v>
+        <v>8.8446150420233398E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.45">
@@ -4014,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -4029,7 +4050,7 @@
         <v>150156.91937082901</v>
       </c>
       <c r="L31">
-        <v>34046.043389842103</v>
+        <v>11651.500265447101</v>
       </c>
       <c r="M31">
         <v>20938.734835386302</v>
@@ -4040,7 +4061,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="1"/>
-        <v>1.6259837882995944</v>
+        <v>0.55645674664909339</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.45">
@@ -4063,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -4078,7 +4099,7 @@
         <v>29515.928072061801</v>
       </c>
       <c r="L32">
-        <v>16585.165391597198</v>
+        <v>5675.9035624190501</v>
       </c>
       <c r="M32">
         <v>29166.1444604397</v>
@@ -4089,7 +4110,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="1"/>
-        <v>0.56864442312877328</v>
+        <v>0.19460589211980753</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.45">
@@ -4112,7 +4133,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -4127,7 +4148,7 @@
         <v>2984.84544321354</v>
       </c>
       <c r="L33">
-        <v>6018.5470383822003</v>
+        <v>2059.71371217362</v>
       </c>
       <c r="M33">
         <v>35917.771619558298</v>
@@ -4138,7 +4159,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>0.16756460011302377</v>
+        <v>5.7345253318890323E-2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.45">
@@ -4161,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -4176,7 +4197,7 @@
         <v>55.665989074391398</v>
       </c>
       <c r="L34">
-        <v>1063.93885593257</v>
+        <v>364.10938329522202</v>
       </c>
       <c r="M34">
         <v>41167.352288961403</v>
@@ -4187,7 +4208,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>2.5844238134738001E-2</v>
+        <v>8.8446150420233398E-3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.45">
@@ -4210,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -4225,7 +4246,7 @@
         <v>243661.64103689801</v>
       </c>
       <c r="L35">
-        <v>38301.798813572401</v>
+        <v>13107.937798628</v>
       </c>
       <c r="M35">
         <v>23556.076689809601</v>
@@ -4236,7 +4257,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="1"/>
-        <v>1.6259837882995951</v>
+        <v>0.55645674664909361</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.45">
@@ -4259,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4274,7 +4295,7 @@
         <v>42155.2962724061</v>
       </c>
       <c r="L36">
-        <v>18658.311065546801</v>
+        <v>6385.3915077214297</v>
       </c>
       <c r="M36">
         <v>32811.912517994599</v>
@@ -4285,7 +4306,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>0.56864442312877295</v>
+        <v>0.19460589211980786</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.45">
@@ -4308,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -4323,7 +4344,7 @@
         <v>3851.6701928590501</v>
       </c>
       <c r="L37">
-        <v>6770.8654181799802</v>
+        <v>2317.1779261953302</v>
       </c>
       <c r="M37">
         <v>40407.493072003097</v>
@@ -4334,7 +4355,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>0.16756460011302385</v>
+        <v>5.7345253318890496E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
@@ -4357,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="G38">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4372,7 +4393,7 @@
         <v>70.687442990114107</v>
       </c>
       <c r="L38">
-        <v>1196.93121292414</v>
+        <v>409.62305620712402</v>
       </c>
       <c r="M38">
         <v>46313.271325081601</v>
@@ -4383,7 +4404,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>2.5844238134737962E-2</v>
+        <v>8.8446150420233207E-3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.45">
@@ -4406,7 +4427,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4421,7 +4442,7 @@
         <v>339649.02812517999</v>
       </c>
       <c r="L39">
-        <v>42557.554237302698</v>
+        <v>14564.3753318089</v>
       </c>
       <c r="M39">
         <v>26173.418544232802</v>
@@ -4432,7 +4453,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>1.6259837882996018</v>
+        <v>0.55645674664909583</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.45">
@@ -4455,7 +4476,7 @@
         <v>1</v>
       </c>
       <c r="G40">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4470,7 +4491,7 @@
         <v>57503.435595912299</v>
       </c>
       <c r="L40">
-        <v>20731.456739496502</v>
+        <v>7094.8794530238101</v>
       </c>
       <c r="M40">
         <v>36457.680575549603</v>
@@ -4481,7 +4502,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>0.56864442312877372</v>
+        <v>0.19460589211980758</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.45">
@@ -4504,7 +4525,7 @@
         <v>1</v>
       </c>
       <c r="G41">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4519,7 +4540,7 @@
         <v>4788.5023942415901</v>
       </c>
       <c r="L41">
-        <v>7523.1837979777501</v>
+        <v>2574.6421402170299</v>
       </c>
       <c r="M41">
         <v>44897.214524447903</v>
@@ -4530,7 +4551,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>0.16756460011302365</v>
+        <v>5.7345253318890392E-2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.45">
@@ -4553,7 +4574,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -4568,7 +4589,7 @@
         <v>85.879346099740104</v>
       </c>
       <c r="L42">
-        <v>1329.92356991571</v>
+        <v>455.136729119027</v>
       </c>
       <c r="M42">
         <v>51459.1903612018</v>
@@ -4579,7 +4600,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>2.5844238134737928E-2</v>
+        <v>8.8446150420233224E-3</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.45">
@@ -4602,7 +4623,7 @@
         <v>1</v>
       </c>
       <c r="G43">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4617,7 +4638,7 @@
         <v>12098.531824973201</v>
       </c>
       <c r="L43">
-        <v>4208.1418248673599</v>
+        <v>28170.205604483999</v>
       </c>
       <c r="M43">
         <v>11224.303631111999</v>
@@ -4628,7 +4649,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="1"/>
-        <v>0.37491339892152015</v>
+        <v>2.509750852284558</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.45">
@@ -4651,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>3.3791089965397899E-3</v>
+        <v>2.5563271604938299E-2</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4666,7 +4687,7 @@
         <v>2562.0202853519199</v>
       </c>
       <c r="L44">
-        <v>4116.8286250708998</v>
+        <v>5441.8749130304104</v>
       </c>
       <c r="M44">
         <v>11224.303631111999</v>
@@ -4677,7 +4698,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="1"/>
-        <v>0.36677808801070744</v>
+        <v>0.48482962434715249</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.45">
@@ -4700,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>3.4548997388095799E-3</v>
+        <v>4.6188271604938297E-2</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4715,7 +4736,7 @@
         <v>780.64919008840798</v>
       </c>
       <c r="L45">
-        <v>4026.5170325848198</v>
+        <v>3011.8495801653398</v>
       </c>
       <c r="M45">
         <v>11224.303631111999</v>
@@ -4726,7 +4747,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="1"/>
-        <v>0.35873201268575361</v>
+        <v>0.26833286760142233</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.45">
@@ -4749,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="G46">
-        <v>3.5332692633840198E-3</v>
+        <v>6.6813271604938301E-2</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4764,7 +4785,7 @@
         <v>339.32170495557801</v>
       </c>
       <c r="L46">
-        <v>3937.2070474091202</v>
+        <v>2082.1031974673501</v>
       </c>
       <c r="M46">
         <v>11224.303631111999</v>
@@ -4775,7 +4796,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>0.35077517294665866</v>
+        <v>0.18549954330316656</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.45">
@@ -4798,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="G47">
-        <v>3.6143359019213798E-3</v>
+        <v>8.7438271604938306E-2</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4813,7 +4834,7 @@
         <v>198.75631576884999</v>
       </c>
       <c r="L47">
-        <v>3848.8986695438098</v>
+        <v>1590.9752547537701</v>
       </c>
       <c r="M47">
         <v>11224.303631111999</v>
@@ -4824,7 +4845,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>0.34290756879342338</v>
+        <v>0.14174378269167964</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.45">
@@ -4847,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="G48">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4862,7 +4883,7 @@
         <v>137.00068029425</v>
       </c>
       <c r="L48">
-        <v>3761.5918989888801</v>
+        <v>1287.32107010851</v>
       </c>
       <c r="M48">
         <v>11224.303631111999</v>
@@ -4873,7 +4894,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>0.33512920022604703</v>
+        <v>0.11469050663778009</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.45">
@@ -4896,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>3.7850686611455098E-3</v>
+        <v>0.12868827160493801</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4911,7 +4932,7 @@
         <v>103.410063257727</v>
       </c>
       <c r="L49">
-        <v>3675.2867357443201</v>
+        <v>1081.00081465822</v>
       </c>
       <c r="M49">
         <v>11224.303631111999</v>
@@ -4922,7 +4943,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>0.32744006724452862</v>
+        <v>9.630894264672743E-2</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.45">
@@ -4945,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="G50">
-        <v>3.8750077500155E-3</v>
+        <v>0.14931327160493801</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4960,7 +4981,7 @@
         <v>75.001130271782898</v>
       </c>
       <c r="L50">
-        <v>3589.98317981015</v>
+        <v>931.67958177198898</v>
       </c>
       <c r="M50">
         <v>11224.303631111999</v>
@@ -4971,7 +4992,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>0.31984016984886998</v>
+        <v>8.300555761780358E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.45">
@@ -4994,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="G51">
-        <v>3.9681909810955398E-3</v>
+        <v>0.16993827160493799</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5009,7 +5030,7 @@
         <v>55.497718386941798</v>
       </c>
       <c r="L51">
-        <v>3505.68123118636</v>
+        <v>818.603867910904</v>
       </c>
       <c r="M51">
         <v>11224.303631111999</v>
@@ -5020,7 +5041,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>0.31232950803907017</v>
+        <v>7.2931372387491658E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.45">
@@ -5043,7 +5064,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>4.0647762747138402E-3</v>
+        <v>0.19056327160493799</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -5058,7 +5079,7 @@
         <v>40.640148632053503</v>
       </c>
       <c r="L52">
-        <v>3422.3808898729599</v>
+        <v>730.00492314328699</v>
       </c>
       <c r="M52">
         <v>11224.303631111999</v>
@@ -5069,7 +5090,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>0.30490808181513013</v>
+        <v>6.5037880935421996E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.45">
@@ -5092,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5107,7 +5128,7 @@
         <v>31.0037289284557</v>
       </c>
       <c r="L53">
-        <v>3340.0821558699299</v>
+        <v>658.71142078442699</v>
       </c>
       <c r="M53">
         <v>11224.303631111999</v>
@@ -5118,7 +5139,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>0.29757589117704808</v>
+        <v>5.8686172651155194E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.45">
@@ -5141,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="G54">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5153,21 +5174,21 @@
         <v>0</v>
       </c>
       <c r="K54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>7.4390054222400201E-3</v>
+        <v>4.97983007604497E-2</v>
       </c>
       <c r="M54">
         <v>11224.303631111999</v>
       </c>
       <c r="N54">
         <f t="shared" si="0"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>6.6275874804564893E-7</v>
+        <v>4.4366494703882266E-6</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.45">
@@ -5190,7 +5211,7 @@
         <v>1</v>
       </c>
       <c r="G55">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5202,21 +5223,21 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>40.610696055902899</v>
+        <v>271.856725663482</v>
       </c>
       <c r="M55">
         <v>11224.303631111999</v>
       </c>
       <c r="N55">
         <f t="shared" si="0"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>3.6181038388284912E-3</v>
+        <v>2.4220364540917978E-2</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.45">
@@ -5239,7 +5260,7 @@
         <v>1</v>
       </c>
       <c r="G56">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5251,21 +5272,21 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>362.383602053537</v>
+        <v>2425.8736996972302</v>
       </c>
       <c r="M56">
         <v>11224.303631111999</v>
       </c>
       <c r="N56">
         <f t="shared" si="0"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>3.228562002270384E-2</v>
+        <v>0.21612687783793472</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.45">
@@ -5288,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5303,7 +5324,7 @@
         <v>1173.0832660343999</v>
       </c>
       <c r="L57">
-        <v>1468.12711318223</v>
+        <v>9827.9583609719302</v>
       </c>
       <c r="M57">
         <v>11224.303631111999</v>
@@ -5314,7 +5335,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>0.13079894855239066</v>
+        <v>0.87559626716889405</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
@@ -5337,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="G58">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5352,7 +5373,7 @@
         <v>12098.531824973201</v>
       </c>
       <c r="L58">
-        <v>4208.1418248673599</v>
+        <v>28170.205604483999</v>
       </c>
       <c r="M58">
         <v>11224.303631111999</v>
@@ -5363,7 +5384,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>0.37491339892152015</v>
+        <v>2.509750852284558</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.45">
@@ -5386,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="G59">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5401,7 +5422,7 @@
         <v>130808.717409716</v>
       </c>
       <c r="L59">
-        <v>9868.3991415843993</v>
+        <v>66061.184336226099</v>
       </c>
       <c r="M59">
         <v>11224.303631111999</v>
@@ -5412,7 +5433,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>0.87919923283532286</v>
+        <v>5.8855485834430663</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.45">
@@ -5435,7 +5456,7 @@
         <v>1</v>
       </c>
       <c r="G60">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5450,7 +5471,7 @@
         <v>80925.795305839798</v>
       </c>
       <c r="L60">
-        <v>20257.859203073502</v>
+        <v>135610.46243379801</v>
       </c>
       <c r="M60">
         <v>11224.303631111999</v>
@@ -5461,7 +5482,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>1.8048210266623499</v>
+        <v>12.081859765260376</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.45">
@@ -5484,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5499,7 +5520,7 @@
         <v>64021.535804323998</v>
       </c>
       <c r="L61">
-        <v>37795.686264648699</v>
+        <v>253012.44524269001</v>
       </c>
       <c r="M61">
         <v>11224.303631111999</v>
@@ -5510,7 +5531,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>3.3673078978267319</v>
+        <v>22.541482621815344</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.45">
@@ -5533,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="G62">
-        <v>3.3057851239669399E-3</v>
+        <v>4.9382716049382698E-3</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5548,7 +5569,7 @@
         <v>58750.822858273998</v>
       </c>
       <c r="L62">
-        <v>65598.439015132899</v>
+        <v>439130.04629964998</v>
       </c>
       <c r="M62">
         <v>11224.303631111999</v>
@@ -5559,7 +5580,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>5.8443214983337022</v>
+        <v>39.123143914465281</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.45">
@@ -5582,7 +5603,7 @@
         <v>1</v>
       </c>
       <c r="G63">
-        <v>3.49375491309285E-3</v>
+        <v>5.6500771604938299E-2</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -5594,21 +5615,21 @@
         <v>0</v>
       </c>
       <c r="K63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>7.0387746346467703E-3</v>
+        <v>4.3545188108471498E-3</v>
       </c>
       <c r="M63">
         <v>11224.303631111999</v>
       </c>
       <c r="N63">
         <f t="shared" si="0"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>6.271012319317875E-7</v>
+        <v>3.8795447396639472E-7</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.45">
@@ -5631,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="G64">
-        <v>3.49375491309285E-3</v>
+        <v>5.6500771604938299E-2</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -5643,21 +5664,21 @@
         <v>0</v>
       </c>
       <c r="K64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>38.425773482977903</v>
+        <v>23.7607790269209</v>
       </c>
       <c r="M64">
         <v>11224.303631111999</v>
       </c>
       <c r="N64">
         <f t="shared" si="0"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O64">
         <f t="shared" si="1"/>
-        <v>3.4234438719625972E-3</v>
+        <v>2.1169045143308285E-3</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.45">
@@ -5680,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>3.49375491309285E-3</v>
+        <v>5.6500771604938299E-2</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -5692,21 +5713,21 @@
         <v>0</v>
       </c>
       <c r="K65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>342.88676528189598</v>
+        <v>212.025833773469</v>
       </c>
       <c r="M65">
         <v>11224.303631111999</v>
       </c>
       <c r="N65">
         <f t="shared" si="0"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>3.0548600300821151E-2</v>
+        <v>1.8889887581601664E-2</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.45">
@@ -5729,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="G66">
-        <v>3.49375491309285E-3</v>
+        <v>5.6500771604938299E-2</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -5744,7 +5765,7 @@
         <v>34.810746108467903</v>
       </c>
       <c r="L66">
-        <v>1389.1394478366401</v>
+        <v>858.981679893756</v>
       </c>
       <c r="M66">
         <v>11224.303631111999</v>
@@ -5755,7 +5776,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>0.12376174892366282</v>
+        <v>7.6528728028418105E-2</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.45">
@@ -5778,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="G67">
-        <v>3.49375491309285E-3</v>
+        <v>5.6500771604938299E-2</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -5793,7 +5814,7 @@
         <v>519.30957358880403</v>
       </c>
       <c r="L67">
-        <v>3981.7368390831798</v>
+        <v>2462.1279053424</v>
       </c>
       <c r="M67">
         <v>11224.303631111999</v>
@@ -5804,7 +5825,7 @@
       </c>
       <c r="O67">
         <f t="shared" si="1"/>
-        <v>0.35474243836797442</v>
+        <v>0.21935685154825729</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.45">
@@ -5827,7 +5848,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>3.49375491309285E-3</v>
+        <v>5.6500771604938299E-2</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -5842,7 +5863,7 @@
         <v>3357.4589706840802</v>
       </c>
       <c r="L68">
-        <v>9337.4629563636208</v>
+        <v>5773.86930354179</v>
       </c>
       <c r="M68">
         <v>11224.303631111999</v>
@@ -5853,7 +5874,7 @@
       </c>
       <c r="O68">
         <f t="shared" ref="O68:O131" si="3">L68/M68</f>
-        <v>0.83189686088691028</v>
+        <v>0.51440779698239225</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.45">
@@ -5876,7 +5897,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>3.49375491309285E-3</v>
+        <v>5.6500771604938299E-2</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -5891,7 +5912,7 @@
         <v>17342.0230032984</v>
       </c>
       <c r="L69">
-        <v>19167.952893883401</v>
+        <v>11852.6044325887</v>
       </c>
       <c r="M69">
         <v>11224.303631111999</v>
@@ -5902,7 +5923,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="3"/>
-        <v>1.7077186722526696</v>
+        <v>1.0559768179947617</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.45">
@@ -5925,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <v>3.49375491309285E-3</v>
+        <v>5.6500771604938299E-2</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -5940,7 +5961,7 @@
         <v>130452.73410209799</v>
       </c>
       <c r="L70">
-        <v>35762.215871401902</v>
+        <v>22113.754176213199</v>
       </c>
       <c r="M70">
         <v>11224.303631111999</v>
@@ -5951,7 +5972,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>3.1861411671254758</v>
+        <v>1.9701671393597515</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.45">
@@ -5974,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="G71">
-        <v>3.49375491309285E-3</v>
+        <v>5.6500771604938299E-2</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -5989,7 +6010,7 @@
         <v>29341.952777385399</v>
       </c>
       <c r="L71">
-        <v>62069.134568946902</v>
+        <v>38380.775641075597</v>
       </c>
       <c r="M71">
         <v>11224.303631111999</v>
@@ -6000,7 +6021,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>5.5298873416878216</v>
+        <v>3.4194349068293324</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.45">
@@ -6023,7 +6044,7 @@
         <v>1</v>
       </c>
       <c r="G72">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6035,21 +6056,21 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>6.6496101361114097E-3</v>
+        <v>2.2767557295557501E-3</v>
       </c>
       <c r="M72">
         <v>11224.303631111999</v>
       </c>
       <c r="N72">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>5.9242963792245771E-7</v>
+        <v>2.0284160197207623E-7</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.45">
@@ -6072,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -6084,21 +6105,21 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>36.301263515755799</v>
+        <v>12.423299137781401</v>
       </c>
       <c r="M73">
         <v>11224.303631111999</v>
       </c>
       <c r="N73">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O73">
         <f t="shared" si="3"/>
-        <v>3.234166208328009E-3</v>
+        <v>1.1068213713807575E-3</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.45">
@@ -6121,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="G74">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -6136,7 +6157,7 @@
         <v>4.14276688641894</v>
       </c>
       <c r="L74">
-        <v>323.92901155463301</v>
+        <v>110.857491453497</v>
       </c>
       <c r="M74">
         <v>11224.303631111999</v>
@@ -6147,7 +6168,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="3"/>
-        <v>2.885960877401364E-2</v>
+        <v>9.8765585016978262E-3</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.45">
@@ -6170,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="G75">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H75">
         <v>0</v>
@@ -6185,7 +6206,7 @@
         <v>26.713984538793799</v>
       </c>
       <c r="L75">
-        <v>1312.33577323793</v>
+        <v>449.117697323958</v>
       </c>
       <c r="M75">
         <v>11224.303631111999</v>
@@ -6196,7 +6217,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="3"/>
-        <v>0.11691912624319448</v>
+        <v>4.0012967582155792E-2</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.45">
@@ -6219,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="G76">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -6234,7 +6255,7 @@
         <v>137.00068029425</v>
       </c>
       <c r="L76">
-        <v>3761.5918989888801</v>
+        <v>1287.32107010851</v>
       </c>
       <c r="M76">
         <v>11224.303631111999</v>
@@ -6245,7 +6266,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="3"/>
-        <v>0.33512920022604703</v>
+        <v>0.11469050663778009</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.45">
@@ -6268,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -6283,7 +6304,7 @@
         <v>633.33111137569904</v>
       </c>
       <c r="L77">
-        <v>8821.2070343286705</v>
+        <v>3018.86169048088</v>
       </c>
       <c r="M77">
         <v>11224.303631111999</v>
@@ -6294,7 +6315,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="3"/>
-        <v>0.7859023886237072</v>
+        <v>0.2689575932455241</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.45">
@@ -6317,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="G78">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -6332,7 +6353,7 @@
         <v>4060.3831461874202</v>
       </c>
       <c r="L78">
-        <v>18108.182243011801</v>
+        <v>6197.1221676280402</v>
       </c>
       <c r="M78">
         <v>11224.303631111999</v>
@@ -6343,7 +6364,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="3"/>
-        <v>1.6133011755685918</v>
+        <v>0.55211640483874602</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.45">
@@ -6366,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="G79">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -6381,7 +6402,7 @@
         <v>12359.2344150343</v>
       </c>
       <c r="L79">
-        <v>33784.9704659868</v>
+        <v>11562.1538704264</v>
       </c>
       <c r="M79">
         <v>11224.303631111999</v>
@@ -6392,7 +6413,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="3"/>
-        <v>3.0099836547846222</v>
+        <v>1.0300998841814946</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.45">
@@ -6415,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="G80">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -6430,7 +6451,7 @@
         <v>47632.319049263402</v>
       </c>
       <c r="L80">
-        <v>58637.414577494099</v>
+        <v>20067.349491737001</v>
       </c>
       <c r="M80">
         <v>11224.303631111999</v>
@@ -6441,7 +6462,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="3"/>
-        <v>5.2241472170229279</v>
+        <v>1.7878480617820667</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.45">
@@ -6464,7 +6485,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>3.9211841976276801E-3</v>
+        <v>0.15962577160493799</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -6476,21 +6497,21 @@
         <v>0</v>
       </c>
       <c r="K81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81">
-        <v>6.2715119266339202E-3</v>
+        <v>1.5413154799965301E-3</v>
       </c>
       <c r="M81">
         <v>11224.303631111999</v>
       </c>
       <c r="N81">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O81">
         <f t="shared" si="3"/>
-        <v>5.5874396601765817E-7</v>
+        <v>1.3731947483354306E-7</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.45">
@@ -6513,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="G82">
-        <v>3.9211841976276801E-3</v>
+        <v>0.15962577160493799</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -6525,21 +6546,21 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
-        <v>34.237166154236803</v>
+        <v>8.4103107878974495</v>
       </c>
       <c r="M82">
         <v>11224.303631111999</v>
       </c>
       <c r="N82">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O82">
         <f t="shared" si="3"/>
-        <v>3.0502708479247459E-3</v>
+        <v>7.4929466132628438E-4</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.45">
@@ -6562,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="G83">
-        <v>3.9211841976276801E-3</v>
+        <v>0.15962577160493799</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -6577,7 +6598,7 @@
         <v>2.7969327786845799</v>
       </c>
       <c r="L83">
-        <v>305.510340871746</v>
+        <v>75.048177295769307</v>
       </c>
       <c r="M83">
         <v>11224.303631111999</v>
@@ -6588,7 +6609,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="3"/>
-        <v>2.7218645442281114E-2</v>
+        <v>6.686221235832181E-3</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.45">
@@ -6611,7 +6632,7 @@
         <v>1</v>
       </c>
       <c r="G84">
-        <v>3.9211841976276801E-3</v>
+        <v>0.15962577160493799</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -6626,7 +6647,7 @@
         <v>15.631997473577799</v>
       </c>
       <c r="L84">
-        <v>1237.7160893861101</v>
+        <v>304.043183130974</v>
       </c>
       <c r="M84">
         <v>11224.303631111999</v>
@@ -6637,7 +6658,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="3"/>
-        <v>0.11027108051098655</v>
+        <v>2.7087932857430393E-2</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.45">
@@ -6660,7 +6681,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>3.9211841976276801E-3</v>
+        <v>0.15962577160493799</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -6675,7 +6696,7 @@
         <v>64.121025764412593</v>
       </c>
       <c r="L85">
-        <v>3547.7070045844598</v>
+        <v>871.48914015080402</v>
       </c>
       <c r="M85">
         <v>11224.303631111999</v>
@@ -6686,7 +6707,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="3"/>
-        <v>0.31607368449573792</v>
+        <v>7.764304751478511E-2</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.45">
@@ -6709,7 +6730,7 @@
         <v>1</v>
       </c>
       <c r="G86">
-        <v>3.9211841976276801E-3</v>
+        <v>0.15962577160493799</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -6724,7 +6745,7 @@
         <v>227.582553178925</v>
       </c>
       <c r="L86">
-        <v>8319.6313754795392</v>
+        <v>2043.70552145908</v>
       </c>
       <c r="M86">
         <v>11224.303631111999</v>
@@ -6735,7 +6756,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="3"/>
-        <v>0.74121581604571285</v>
+        <v>0.1820786027022871</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.45">
@@ -6758,7 +6779,7 @@
         <v>1</v>
       </c>
       <c r="G87">
-        <v>3.9211841976276801E-3</v>
+        <v>0.15962577160493799</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -6773,7 +6794,7 @@
         <v>1057.70819969282</v>
       </c>
       <c r="L87">
-        <v>17078.547250458902</v>
+        <v>4195.3206505199096</v>
       </c>
       <c r="M87">
         <v>11224.303631111999</v>
@@ -6784,7 +6805,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="3"/>
-        <v>1.5215685366101344</v>
+        <v>0.37377112989808492</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.45">
@@ -6807,7 +6828,7 @@
         <v>1</v>
       </c>
       <c r="G88">
-        <v>3.9211841976276801E-3</v>
+        <v>0.15962577160493799</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -6822,7 +6843,7 @@
         <v>4130.8968755215601</v>
       </c>
       <c r="L88">
-        <v>31863.9500484034</v>
+        <v>7827.3336534294303</v>
       </c>
       <c r="M88">
         <v>11224.303631111999</v>
@@ -6833,7 +6854,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="3"/>
-        <v>2.838835360804171</v>
+        <v>0.69735583700117443</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.45">
@@ -6856,7 +6877,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>3.9211841976276801E-3</v>
+        <v>0.15962577160493799</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -6871,7 +6892,7 @@
         <v>13326.9139858002</v>
       </c>
       <c r="L89">
-        <v>55303.279040774498</v>
+        <v>13585.1712208714</v>
       </c>
       <c r="M89">
         <v>11224.303631111999</v>
@@ -6882,7 +6903,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="3"/>
-        <v>4.9271011243390221</v>
+        <v>1.210335328350834</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.45">
@@ -6905,7 +6926,7 @@
         <v>1</v>
       </c>
       <c r="G90">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -6917,21 +6938,21 @@
         <v>0</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>5.9044800062143096E-3</v>
+        <v>1.16499685759694E-3</v>
       </c>
       <c r="M90">
         <v>11224.303631111999</v>
       </c>
       <c r="N90">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O90">
         <f t="shared" si="3"/>
-        <v>5.2604421621738943E-7</v>
+        <v>1.0379235058892674E-7</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.45">
@@ -6954,7 +6975,7 @@
         <v>1</v>
       </c>
       <c r="G91">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -6966,21 +6987,21 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>32.2334813984208</v>
+        <v>6.3568982252330501</v>
       </c>
       <c r="M91">
         <v>11224.303631111999</v>
       </c>
       <c r="N91">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O91">
         <f t="shared" si="3"/>
-        <v>2.8717577907527974E-3</v>
+        <v>5.6635123515482344E-4</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.45">
@@ -7003,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="G92">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -7018,7 +7039,7 @@
         <v>1.4020049712900799</v>
       </c>
       <c r="L92">
-        <v>287.63075323323699</v>
+        <v>56.724850851524501</v>
       </c>
       <c r="M92">
         <v>11224.303631111999</v>
@@ -7029,7 +7050,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="3"/>
-        <v>2.5625710305623762E-2</v>
+        <v>5.0537523498822819E-3</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.45">
@@ -7052,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -7067,7 +7088,7 @@
         <v>7.7353906441018303</v>
       </c>
       <c r="L93">
-        <v>1165.2803962811699</v>
+        <v>229.809768031495</v>
       </c>
       <c r="M93">
         <v>11224.303631111999</v>
@@ -7078,7 +7099,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="3"/>
-        <v>0.10381761172703814</v>
+        <v>2.0474300730291949E-2</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.45">
@@ -7101,7 +7122,7 @@
         <v>1</v>
       </c>
       <c r="G94">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -7116,7 +7137,7 @@
         <v>31.0037289284557</v>
       </c>
       <c r="L94">
-        <v>3340.0821558699299</v>
+        <v>658.71142078442699</v>
       </c>
       <c r="M94">
         <v>11224.303631111999</v>
@@ -7127,7 +7148,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="3"/>
-        <v>0.29757589117704808</v>
+        <v>5.8686172651155194E-2</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.45">
@@ -7150,7 +7171,7 @@
         <v>1</v>
       </c>
       <c r="G95">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -7165,7 +7186,7 @@
         <v>102.011156451831</v>
       </c>
       <c r="L95">
-        <v>7832.7359798162497</v>
+        <v>1544.7262687316299</v>
       </c>
       <c r="M95">
         <v>11224.303631111999</v>
@@ -7176,7 +7197,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="3"/>
-        <v>0.69783714315292944</v>
+        <v>0.13762335014262198</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.45">
@@ -7199,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="G96">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -7214,7 +7235,7 @@
         <v>380.18461072563298</v>
       </c>
       <c r="L96">
-        <v>16079.047916224599</v>
+        <v>3171.01556293864</v>
       </c>
       <c r="M96">
         <v>11224.303631111999</v>
@@ -7225,7 +7246,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="3"/>
-        <v>1.4325207553772881</v>
+        <v>0.28251334489465207</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.45">
@@ -7248,7 +7269,7 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -7263,7 +7284,7 @@
         <v>1471.9872083600101</v>
       </c>
       <c r="L97">
-        <v>29999.154618651799</v>
+        <v>5916.2573969792302</v>
       </c>
       <c r="M97">
         <v>11224.303631111999</v>
@@ -7274,7 +7295,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="3"/>
-        <v>2.6726962851841316</v>
+        <v>0.52709349207021605</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.45">
@@ -7297,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="G98">
-        <v>4.1649312786339E-3</v>
+        <v>0.211188271604938</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -7312,7 +7333,7 @@
         <v>4821.80114678687</v>
       </c>
       <c r="L98">
-        <v>52066.7279587882</v>
+        <v>10268.2948349206</v>
       </c>
       <c r="M98">
         <v>11224.303631111999</v>
@@ -7323,7 +7344,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="3"/>
-        <v>4.6387490636361122</v>
+        <v>0.9148268946020407</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.45">
@@ -7346,7 +7367,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -7361,7 +7382,7 @@
         <v>63.395328879603603</v>
       </c>
       <c r="L99">
-        <v>3113.9713373105501</v>
+        <v>1065.6873530888399</v>
       </c>
       <c r="M99">
         <v>11224.303631111999</v>
@@ -7372,7 +7393,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="3"/>
-        <v>0.27743113868366076</v>
+        <v>9.4944629806246753E-2</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.45">
@@ -7395,7 +7416,7 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -7410,7 +7431,7 @@
         <v>137.00068029425</v>
       </c>
       <c r="L100">
-        <v>3761.5918989888801</v>
+        <v>1287.32107010851</v>
       </c>
       <c r="M100">
         <v>11224.303631111999</v>
@@ -7421,7 +7442,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="3"/>
-        <v>0.33512920022604703</v>
+        <v>0.11469050663778009</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.45">
@@ -7444,7 +7465,7 @@
         <v>2</v>
       </c>
       <c r="G101">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -7459,7 +7480,7 @@
         <v>236.854033214368</v>
       </c>
       <c r="L101">
-        <v>4409.2116168674602</v>
+        <v>1508.9544983565199</v>
       </c>
       <c r="M101">
         <v>11224.303631111999</v>
@@ -7470,7 +7491,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="3"/>
-        <v>0.39282718659229965</v>
+        <v>0.13443635774195703</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.45">
@@ -7493,7 +7514,7 @@
         <v>3</v>
       </c>
       <c r="G102">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -7508,7 +7529,7 @@
         <v>360.08991824301398</v>
       </c>
       <c r="L102">
-        <v>5056.8309232062402</v>
+        <v>1730.5877857641899</v>
       </c>
       <c r="M102">
         <v>11224.303631111999</v>
@@ -7519,7 +7540,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="3"/>
-        <v>0.45052513629348928</v>
+        <v>0.15418219629833191</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.45">
@@ -7542,7 +7563,7 @@
         <v>4</v>
       </c>
       <c r="G103">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -7557,7 +7578,7 @@
         <v>510.74136535385497</v>
       </c>
       <c r="L103">
-        <v>5704.4515999660398</v>
+        <v>1952.22154216795</v>
       </c>
       <c r="M103">
         <v>11224.303631111999</v>
@@ -7568,7 +7589,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="3"/>
-        <v>0.50822320808875832</v>
+        <v>0.17392807663868784</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.45">
@@ -7591,7 +7612,7 @@
         <v>5</v>
       </c>
       <c r="G104">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -7606,7 +7627,7 @@
         <v>690.88789816005101</v>
       </c>
       <c r="L104">
-        <v>6352.0724835297597</v>
+        <v>2173.8553693457302</v>
       </c>
       <c r="M104">
         <v>11224.303631111999</v>
@@ -7617,7 +7638,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="3"/>
-        <v>0.56592129830868232</v>
+        <v>0.19367396328447015</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.45">
@@ -7640,7 +7661,7 @@
         <v>6</v>
       </c>
       <c r="G105">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -7655,7 +7676,7 @@
         <v>920.05009079020294</v>
       </c>
       <c r="L105">
-        <v>6999.7174142310596</v>
+        <v>2395.49742612092</v>
       </c>
       <c r="M105">
         <v>11224.303631111999</v>
@@ -7666,7 +7687,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="3"/>
-        <v>0.62362153094548756</v>
+        <v>0.21342058312472756</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.45">
@@ -7689,7 +7710,7 @@
         <v>7</v>
       </c>
       <c r="G106">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -7704,7 +7725,7 @@
         <v>1177.05721365252</v>
       </c>
       <c r="L106">
-        <v>7647.3102923221104</v>
+        <v>2617.1216690492702</v>
       </c>
       <c r="M106">
         <v>11224.303631111999</v>
@@ -7715,7 +7736,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="3"/>
-        <v>0.68131712609100958</v>
+        <v>0.23316561588685303</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.45">
@@ -7738,7 +7759,7 @@
         <v>8</v>
       </c>
       <c r="G107">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -7753,7 +7774,7 @@
         <v>1512.33700182096</v>
       </c>
       <c r="L107">
-        <v>8294.9280087765801</v>
+        <v>2838.7544123544299</v>
       </c>
       <c r="M107">
         <v>11224.303631111999</v>
@@ -7764,7 +7785,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="3"/>
-        <v>0.73901493414561126</v>
+        <v>0.25291140596783662</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.45">
@@ -7787,7 +7808,7 @@
         <v>9</v>
       </c>
       <c r="G108">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -7802,7 +7823,7 @@
         <v>1977.7905297468999</v>
       </c>
       <c r="L108">
-        <v>8942.5490218022805</v>
+        <v>3060.3882838376999</v>
       </c>
       <c r="M108">
         <v>11224.303631111999</v>
@@ -7813,7 +7834,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="3"/>
-        <v>0.79671303589961207</v>
+        <v>0.27265729656090076</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.45">
@@ -7836,7 +7857,7 @@
         <v>10</v>
       </c>
       <c r="G109">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -7851,7 +7872,7 @@
         <v>2655.99408356819</v>
       </c>
       <c r="L109">
-        <v>9590.1717441431902</v>
+        <v>3282.02274029604</v>
       </c>
       <c r="M109">
         <v>11224.303631111999</v>
@@ -7862,7 +7883,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="3"/>
-        <v>0.85441128994058446</v>
+        <v>0.29240323927079009</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.45">
@@ -7885,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="G110">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -7900,7 +7921,7 @@
         <v>37735.543098145303</v>
       </c>
       <c r="L110">
-        <v>21278.777118651298</v>
+        <v>7282.1876659044301</v>
       </c>
       <c r="M110">
         <v>5600.6493801250999</v>
@@ -7911,7 +7932,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="3"/>
-        <v>3.7993410539432841</v>
+        <v>1.3002398778517663</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.45">
@@ -7934,7 +7955,7 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -7949,7 +7970,7 @@
         <v>9224.9465463343204</v>
       </c>
       <c r="L111">
-        <v>14473.7041628775</v>
+        <v>4953.3029716482297</v>
       </c>
       <c r="M111">
         <v>6535.0122479721904</v>
@@ -7960,7 +7981,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="3"/>
-        <v>2.2147937316213415</v>
+        <v>0.75796383904027664</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.45">
@@ -7983,7 +8004,7 @@
         <v>1</v>
       </c>
       <c r="G112">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -7998,7 +8019,7 @@
         <v>2729.4768475073101</v>
       </c>
       <c r="L112">
-        <v>10365.7283697482</v>
+        <v>3547.4397265119101</v>
       </c>
       <c r="M112">
         <v>7474.7474966570699</v>
@@ -8009,7 +8030,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="3"/>
-        <v>1.3867663589150085</v>
+        <v>0.47458990796658096</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.45">
@@ -8032,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -8047,7 +8068,7 @@
         <v>1279.15290218873</v>
       </c>
       <c r="L113">
-        <v>7721.7994505342003</v>
+        <v>2642.6139248377899</v>
       </c>
       <c r="M113">
         <v>8410.5572532862407</v>
@@ -8058,7 +8079,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="3"/>
-        <v>0.91810794671388474</v>
+        <v>0.31420200175264801</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.45">
@@ -8081,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="G114">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -8096,7 +8117,7 @@
         <v>604.84525979915702</v>
       </c>
       <c r="L114">
-        <v>5933.6891573901103</v>
+        <v>2030.67299188835</v>
       </c>
       <c r="M114">
         <v>9349.4508955627698</v>
@@ -8107,7 +8128,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="3"/>
-        <v>0.63465643316082088</v>
+        <v>0.21719703269976029</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.45">
@@ -8130,7 +8151,7 @@
         <v>1</v>
       </c>
       <c r="G115">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -8145,7 +8166,7 @@
         <v>286.07727623920601</v>
       </c>
       <c r="L115">
-        <v>4675.6616758542796</v>
+        <v>1600.14109814625</v>
       </c>
       <c r="M115">
         <v>10285.788895096601</v>
@@ -8156,7 +8177,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="3"/>
-        <v>0.45457492114029696</v>
+        <v>0.155568144987796</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.45">
@@ -8179,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="G116">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -8194,7 +8215,7 @@
         <v>137.00068029425</v>
       </c>
       <c r="L116">
-        <v>3761.5918989888801</v>
+        <v>1287.32107010851</v>
       </c>
       <c r="M116">
         <v>11224.303631111999</v>
@@ -8205,7 +8226,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="3"/>
-        <v>0.33512920022604703</v>
+        <v>0.11469050663778009</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.45">
@@ -8228,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -8243,7 +8264,7 @@
         <v>62.316491770133901</v>
       </c>
       <c r="L117">
-        <v>3079.4021654225899</v>
+        <v>1053.85682374312</v>
       </c>
       <c r="M117">
         <v>12160.917269997301</v>
@@ -8254,7 +8275,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="3"/>
-        <v>0.25322120832282197</v>
+        <v>8.6659320209597476E-2</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.45">
@@ -8277,7 +8298,7 @@
         <v>1</v>
       </c>
       <c r="G118">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -8292,7 +8313,7 @@
         <v>27.599142542850899</v>
       </c>
       <c r="L118">
-        <v>2558.6135906146501</v>
+        <v>875.62853013098402</v>
       </c>
       <c r="M118">
         <v>13099.214985500999</v>
@@ -8303,7 +8324,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="3"/>
-        <v>0.19532571939972571</v>
+        <v>6.6845878253023752E-2</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.45">
@@ -8326,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="G119">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -8341,7 +8362,7 @@
         <v>12.161113777121599</v>
       </c>
       <c r="L119">
-        <v>2153.2608485764199</v>
+        <v>736.90557993738503</v>
       </c>
       <c r="M119">
         <v>14035.9986154363</v>
@@ -8352,7 +8373,7 @@
       </c>
       <c r="O119">
         <f t="shared" si="3"/>
-        <v>0.15340987895284766</v>
+        <v>5.2501115177295762E-2</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.45">
@@ -8375,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -8390,7 +8411,7 @@
         <v>4.86926984522509</v>
       </c>
       <c r="L120">
-        <v>1832.4192055466899</v>
+        <v>627.10467161678002</v>
       </c>
       <c r="M120">
         <v>29948.312473483398</v>
@@ -8401,7 +8422,7 @@
       </c>
       <c r="O120">
         <f t="shared" si="3"/>
-        <v>6.1186058719306345E-2</v>
+        <v>2.0939566199999621E-2</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.45">
@@ -8424,7 +8445,7 @@
         <v>1</v>
       </c>
       <c r="G121">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -8436,21 +8457,21 @@
         <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>6.6496101361114097E-3</v>
+        <v>2.2767557295557501E-3</v>
       </c>
       <c r="M121">
         <v>11224.303631111999</v>
       </c>
       <c r="N121">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O121">
         <f t="shared" si="3"/>
-        <v>5.9242963792245771E-7</v>
+        <v>2.0284160197207623E-7</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.45">
@@ -8473,7 +8494,7 @@
         <v>1</v>
       </c>
       <c r="G122">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -8485,21 +8506,21 @@
         <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L122">
-        <v>2.6685687761625401</v>
+        <v>0.91325824407245104</v>
       </c>
       <c r="M122">
         <v>11224.303631111999</v>
       </c>
       <c r="N122">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O122">
         <f t="shared" si="3"/>
-        <v>2.3774916145048752E-4</v>
+        <v>8.1364356675192151E-5</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.45">
@@ -8522,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="G123">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -8534,21 +8555,21 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>18.763972664798199</v>
+        <v>6.4215518373558496</v>
       </c>
       <c r="M123">
         <v>11224.303631111999</v>
       </c>
       <c r="N123">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O123">
         <f t="shared" si="3"/>
-        <v>1.6717271094473449E-3</v>
+        <v>5.7211137977026215E-4</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.45">
@@ -8571,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="G124">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -8583,21 +8604,21 @@
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>63.162339094473602</v>
+        <v>21.615904153640699</v>
       </c>
       <c r="M124">
         <v>11224.303631111999</v>
       </c>
       <c r="N124">
         <f t="shared" si="2"/>
-        <v>8.9092386740871634E-5</v>
+        <v>0</v>
       </c>
       <c r="O124">
         <f t="shared" si="3"/>
-        <v>5.6272835420629174E-3</v>
+        <v>1.9258124926097705E-3</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.45">
@@ -8620,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="G125">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -8635,7 +8656,7 @@
         <v>1.7195638470911601</v>
       </c>
       <c r="L125">
-        <v>156.05107143153501</v>
+        <v>53.405004493130598</v>
       </c>
       <c r="M125">
         <v>11224.303631111999</v>
@@ -8646,7 +8667,7 @@
       </c>
       <c r="O125">
         <f t="shared" si="3"/>
-        <v>1.3902962407305701E-2</v>
+        <v>4.7579793141999784E-3</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.45">
@@ -8669,7 +8690,7 @@
         <v>1</v>
       </c>
       <c r="G126">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -8684,7 +8705,7 @@
         <v>4.14276688641894</v>
       </c>
       <c r="L126">
-        <v>323.92901155463301</v>
+        <v>110.857491453497</v>
       </c>
       <c r="M126">
         <v>11224.303631111999</v>
@@ -8695,7 +8716,7 @@
       </c>
       <c r="O126">
         <f t="shared" si="3"/>
-        <v>2.885960877401364E-2</v>
+        <v>9.8765585016978262E-3</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.45">
@@ -8718,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="G127">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -8733,7 +8754,7 @@
         <v>8.9865377978893495</v>
       </c>
       <c r="L127">
-        <v>600.44712527354</v>
+        <v>205.48965879538699</v>
       </c>
       <c r="M127">
         <v>11224.303631111999</v>
@@ -8744,7 +8765,7 @@
       </c>
       <c r="O127">
         <f t="shared" si="3"/>
-        <v>5.3495267502314821E-2</v>
+        <v>1.8307564152648372E-2</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.45">
@@ -8767,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="G128">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -8782,7 +8803,7 @@
         <v>18.760688924215799</v>
       </c>
       <c r="L128">
-        <v>1027.22147656127</v>
+        <v>351.54367777130699</v>
       </c>
       <c r="M128">
         <v>11224.303631111999</v>
@@ -8793,7 +8814,7 @@
       </c>
       <c r="O128">
         <f t="shared" si="3"/>
-        <v>9.151761305832587E-2</v>
+        <v>3.1319865296309639E-2</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.45">
@@ -8816,7 +8837,7 @@
         <v>1</v>
       </c>
       <c r="G129">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -8831,7 +8852,7 @@
         <v>37.740340458865496</v>
       </c>
       <c r="L129">
-        <v>1654.63770874633</v>
+        <v>566.262912900728</v>
       </c>
       <c r="M129">
         <v>11224.303631111999</v>
@@ -8842,7 +8863,7 @@
       </c>
       <c r="O129">
         <f t="shared" si="3"/>
-        <v>0.14741562266365774</v>
+        <v>5.0449714433164164E-2</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.45">
@@ -8865,7 +8886,7 @@
         <v>1</v>
       </c>
       <c r="G130">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -8880,7 +8901,7 @@
         <v>74.182389538848398</v>
       </c>
       <c r="L130">
-        <v>2542.65222692919</v>
+        <v>870.16610881263603</v>
       </c>
       <c r="M130">
         <v>11224.303631111999</v>
@@ -8891,7 +8912,7 @@
       </c>
       <c r="O130">
         <f t="shared" si="3"/>
-        <v>0.2265309555491139</v>
+        <v>7.7525175495134754E-2</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.45">
@@ -8914,7 +8935,7 @@
         <v>1</v>
       </c>
       <c r="G131">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -8929,7 +8950,7 @@
         <v>137.00068029425</v>
       </c>
       <c r="L131">
-        <v>3761.5918989888801</v>
+        <v>1287.32107010851</v>
       </c>
       <c r="M131">
         <v>11224.303631111999</v>
@@ -8940,7 +8961,7 @@
       </c>
       <c r="O131">
         <f t="shared" si="3"/>
-        <v>0.33512920022604703</v>
+        <v>0.11469050663778009</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.45">
@@ -8963,7 +8984,7 @@
         <v>1</v>
       </c>
       <c r="G132">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -8978,18 +8999,18 @@
         <v>243.614961954032</v>
       </c>
       <c r="L132">
-        <v>5392.9530205565798</v>
+        <v>1845.6180893344599</v>
       </c>
       <c r="M132">
         <v>11224.303631111999</v>
       </c>
       <c r="N132">
-        <f t="shared" ref="N132:N141" si="4">K132/M132</f>
+        <f t="shared" ref="N132:N152" si="4">K132/M132</f>
         <v>2.1704238406271347E-2</v>
       </c>
       <c r="O132">
-        <f t="shared" ref="O132:O141" si="5">L132/M132</f>
-        <v>0.48047105618277863</v>
+        <f t="shared" ref="O132:O152" si="5">L132/M132</f>
+        <v>0.16443052059093427</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.45">
@@ -9012,7 +9033,7 @@
         <v>1</v>
       </c>
       <c r="G133">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -9027,7 +9048,7 @@
         <v>442.23148754733398</v>
       </c>
       <c r="L133">
-        <v>7530.1998855800803</v>
+        <v>2577.04323997552</v>
       </c>
       <c r="M133">
         <v>11224.303631111999</v>
@@ -9038,7 +9059,7 @@
       </c>
       <c r="O133">
         <f t="shared" si="5"/>
-        <v>0.67088348044216783</v>
+        <v>0.22959493298384789</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.45">
@@ -9061,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="G134">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -9076,7 +9097,7 @@
         <v>1045.7160671813499</v>
       </c>
       <c r="L134">
-        <v>10279.563132650999</v>
+        <v>3517.95159270982</v>
       </c>
       <c r="M134">
         <v>11224.303631111999</v>
@@ -9087,7 +9108,7 @@
       </c>
       <c r="O134">
         <f t="shared" si="5"/>
-        <v>0.9158308141413487</v>
+        <v>0.31342270383336862</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.45">
@@ -9110,7 +9131,7 @@
         <v>1</v>
       </c>
       <c r="G135">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -9125,7 +9146,7 @@
         <v>2249.77172569091</v>
       </c>
       <c r="L135">
-        <v>13760.837957587401</v>
+        <v>4709.3403858916599</v>
       </c>
       <c r="M135">
         <v>11224.303631111999</v>
@@ -9136,7 +9157,7 @@
       </c>
       <c r="O135">
         <f t="shared" si="5"/>
-        <v>1.2259858971958428</v>
+        <v>0.41956637495426541</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.45">
@@ -9159,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="G136">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -9174,7 +9195,7 @@
         <v>4060.3831461874202</v>
       </c>
       <c r="L136">
-        <v>18108.182243011801</v>
+        <v>6197.1221676280402</v>
       </c>
       <c r="M136">
         <v>11224.303631111999</v>
@@ -9185,7 +9206,7 @@
       </c>
       <c r="O136">
         <f t="shared" si="5"/>
-        <v>1.6133011755685918</v>
+        <v>0.55211640483874602</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.45">
@@ -9208,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="G137">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -9223,7 +9244,7 @@
         <v>6235.63835666868</v>
       </c>
       <c r="L137">
-        <v>23470.9146346544</v>
+        <v>8032.3979196229702</v>
       </c>
       <c r="M137">
         <v>11224.303631111999</v>
@@ -9234,7 +9255,7 @@
       </c>
       <c r="O137">
         <f t="shared" si="5"/>
-        <v>2.0910798037926135</v>
+        <v>0.71562550191162233</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.45">
@@ -9257,7 +9278,7 @@
         <v>1</v>
       </c>
       <c r="G138">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -9272,7 +9293,7 @@
         <v>9313.9293036682793</v>
       </c>
       <c r="L138">
-        <v>30014.3125824612</v>
+        <v>10271.730168977499</v>
       </c>
       <c r="M138">
         <v>11224.303631111999</v>
@@ -9283,7 +9304,7 @@
       </c>
       <c r="O138">
         <f t="shared" si="5"/>
-        <v>2.6740467443580429</v>
+        <v>0.91513295671242212</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.45">
@@ -9306,7 +9327,7 @@
         <v>1</v>
       </c>
       <c r="G139">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -9321,7 +9342,7 @@
         <v>16425.2784495997</v>
       </c>
       <c r="L139">
-        <v>37920.410357863097</v>
+        <v>12977.416091830701</v>
       </c>
       <c r="M139">
         <v>11224.303631111999</v>
@@ -9332,7 +9353,7 @@
       </c>
       <c r="O139">
         <f t="shared" si="5"/>
-        <v>3.3784198649752932</v>
+        <v>1.1561889733505917</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.45">
@@ -9355,7 +9376,7 @@
         <v>1</v>
       </c>
       <c r="G140">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -9370,7 +9391,7 @@
         <v>25260.9938231222</v>
       </c>
       <c r="L140">
-        <v>47388.797054534502</v>
+        <v>16217.760611350999</v>
       </c>
       <c r="M140">
         <v>11224.303631111999</v>
@@ -9381,7 +9402,7 @@
       </c>
       <c r="O140">
         <f t="shared" si="5"/>
-        <v>4.2219810343672659</v>
+        <v>1.444879000457358</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.45">
@@ -9404,7 +9425,7 @@
         <v>1</v>
       </c>
       <c r="G141">
-        <v>3.6982248520710101E-3</v>
+        <v>0.108063271604938</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -9419,7 +9440,7 @@
         <v>47632.319049263402</v>
       </c>
       <c r="L141">
-        <v>58637.414577494099</v>
+        <v>20067.349491737001</v>
       </c>
       <c r="M141">
         <v>11224.303631111999</v>
@@ -9430,7 +9451,546 @@
       </c>
       <c r="O141">
         <f t="shared" si="5"/>
-        <v>5.2241472170229279</v>
+        <v>1.7878480617820667</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>300</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>25</v>
+      </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>4.9382716049382698E-3</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>180</v>
+      </c>
+      <c r="J142">
+        <v>125</v>
+      </c>
+      <c r="K142">
+        <v>20745.022574266899</v>
+      </c>
+      <c r="L142">
+        <v>14085.102802242</v>
+      </c>
+      <c r="M142">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="4"/>
+        <v>1.8482235741346988</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="5"/>
+        <v>1.254875426142279</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>300</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>25</v>
+      </c>
+      <c r="E143">
+        <v>3</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>7.0007716049382699E-3</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>155</v>
+      </c>
+      <c r="J143">
+        <v>65</v>
+      </c>
+      <c r="K143">
+        <v>7554.8554560642197</v>
+      </c>
+      <c r="L143">
+        <v>9935.4852787775599</v>
+      </c>
+      <c r="M143">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="4"/>
+        <v>0.67308010406305763</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="5"/>
+        <v>0.88517609691508714</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>300</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>25</v>
+      </c>
+      <c r="E144">
+        <v>3</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>9.0632716049382708E-3</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>135</v>
+      </c>
+      <c r="J144">
+        <v>45</v>
+      </c>
+      <c r="K144">
+        <v>3708.15504226639</v>
+      </c>
+      <c r="L144">
+        <v>7674.4983768388201</v>
+      </c>
+      <c r="M144">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="4"/>
+        <v>0.33036838312071037</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="5"/>
+        <v>0.6837393774315158</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>300</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>25</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1.11257716049383E-2</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>125</v>
+      </c>
+      <c r="J145">
+        <v>35</v>
+      </c>
+      <c r="K145">
+        <v>2538.0618269039101</v>
+      </c>
+      <c r="L145">
+        <v>6251.7967913412003</v>
+      </c>
+      <c r="M145">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="4"/>
+        <v>0.22612198585476634</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="5"/>
+        <v>0.5569874975595106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>300</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>25</v>
+      </c>
+      <c r="E146">
+        <v>3</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1.3188271604938301E-2</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>120</v>
+      </c>
+      <c r="J146">
+        <v>25</v>
+      </c>
+      <c r="K146">
+        <v>1830.9443557325301</v>
+      </c>
+      <c r="L146">
+        <v>5274.0848311694799</v>
+      </c>
+      <c r="M146">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="4"/>
+        <v>0.16312320264193861</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="5"/>
+        <v>0.46988080548271599</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>300</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>25</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1.5250771604938301E-2</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>115</v>
+      </c>
+      <c r="J147">
+        <v>20</v>
+      </c>
+      <c r="K147">
+        <v>1463.9583543604599</v>
+      </c>
+      <c r="L147">
+        <v>4560.8225618188098</v>
+      </c>
+      <c r="M147">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="4"/>
+        <v>0.1304275438792121</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="5"/>
+        <v>0.40633456753405434</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>300</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>25</v>
+      </c>
+      <c r="E148">
+        <v>3</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1.7313271604938299E-2</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>110</v>
+      </c>
+      <c r="J148">
+        <v>20</v>
+      </c>
+      <c r="K148">
+        <v>1193.6171908822801</v>
+      </c>
+      <c r="L148">
+        <v>4017.4996851033402</v>
+      </c>
+      <c r="M148">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="4"/>
+        <v>0.10634220439063689</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="5"/>
+        <v>0.35792863567655675</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>300</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>25</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149">
+        <v>1.9375771604938301E-2</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>110</v>
+      </c>
+      <c r="J149">
+        <v>15</v>
+      </c>
+      <c r="K149">
+        <v>983.01524119144904</v>
+      </c>
+      <c r="L149">
+        <v>3589.8473949404201</v>
+      </c>
+      <c r="M149">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="4"/>
+        <v>8.7579174040399776E-2</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="5"/>
+        <v>0.31982807245074246</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>300</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>25</v>
+      </c>
+      <c r="E150">
+        <v>3</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>2.1438271604938299E-2</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>105</v>
+      </c>
+      <c r="J150">
+        <v>15</v>
+      </c>
+      <c r="K150">
+        <v>882.62031522172003</v>
+      </c>
+      <c r="L150">
+        <v>3244.4809219100498</v>
+      </c>
+      <c r="M150">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="4"/>
+        <v>7.8634750469083511E-2</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="5"/>
+        <v>0.2890585490681899</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>300</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>25</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>2.3500771604938301E-2</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>105</v>
+      </c>
+      <c r="J151">
+        <v>15</v>
+      </c>
+      <c r="K151">
+        <v>769.06045505019404</v>
+      </c>
+      <c r="L151">
+        <v>2959.7352967905199</v>
+      </c>
+      <c r="M151">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="4"/>
+        <v>6.8517431488442609E-2</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="5"/>
+        <v>0.26368988171226948</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>300</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>25</v>
+      </c>
+      <c r="E152">
+        <v>3</v>
+      </c>
+      <c r="F152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>2.5563271604938299E-2</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>100</v>
+      </c>
+      <c r="J152">
+        <v>10</v>
+      </c>
+      <c r="K152">
+        <v>686.32217950702795</v>
+      </c>
+      <c r="L152">
+        <v>2720.9374565152102</v>
+      </c>
+      <c r="M152">
+        <v>11224.303631111999</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="4"/>
+        <v>6.1146081045478057E-2</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="5"/>
+        <v>0.24241481217357669</v>
       </c>
     </row>
   </sheetData>
